--- a/BalanceSheet/RCL_bal.xlsx
+++ b/BalanceSheet/RCL_bal.xlsx
@@ -504,19 +504,19 @@
         </is>
       </c>
       <c r="B4" s="0" t="n">
-        <v>-3708000.0</v>
+        <v>119000000.0</v>
       </c>
       <c r="C4" s="0" t="n">
-        <v>7402000.0</v>
+        <v>119000000.0</v>
       </c>
       <c r="D4" s="0" t="n">
-        <v>10164000.0</v>
+        <v>142000000.0</v>
       </c>
       <c r="E4" s="0" t="n">
-        <v>25109000.0</v>
+        <v>153000000.0</v>
       </c>
       <c r="F4" s="0" t="n">
-        <v>-15598000.0</v>
+        <v>178000000.0</v>
       </c>
       <c r="G4" s="0" t="n">
         <v>162107000.0</v>
@@ -1914,19 +1914,19 @@
         </is>
       </c>
       <c r="B14" s="0" t="n">
-        <v>-7499000.0</v>
+        <v>341000000.0</v>
       </c>
       <c r="C14" s="0" t="n">
-        <v>-43509000.0</v>
+        <v>353000000.0</v>
       </c>
       <c r="D14" s="0" t="n">
-        <v>-208704000.0</v>
+        <v>421000000.0</v>
       </c>
       <c r="E14" s="0" t="n">
-        <v>-732944000.0</v>
+        <v>661000000.0</v>
       </c>
       <c r="F14" s="0" t="n">
-        <v>851342000.0</v>
+        <v>1414000000.0</v>
       </c>
       <c r="G14" s="0" t="n">
         <v>563706000.0</v>
@@ -4599,7 +4599,7 @@
         <v>12820000000.0</v>
       </c>
       <c r="G34" s="0" t="n">
-        <v>11469000000.0</v>
+        <v>9356958000.0</v>
       </c>
       <c r="H34" s="0" t="n">
         <v>9485542100.0</v>
@@ -4726,7 +4726,7 @@
         <v>16711000000.0</v>
       </c>
       <c r="G35" s="0" t="n">
-        <v>11734000000.0</v>
+        <v>9600696000.0</v>
       </c>
       <c r="H35" s="0" t="n">
         <v>9762272100.0</v>
